--- a/data/Übersicht.xlsx
+++ b/data/Übersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\Duales Studium\DHBW\KNN_Algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE8DEA5-B2D4-4294-8DC7-A2C54BB34570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402AC90F-332C-4CE7-B0B2-F8F9F0B7A89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{07B0CE21-313D-42E1-BB58-9EDFD458DEBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07B0CE21-313D-42E1-BB58-9EDFD458DEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>class</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>black=k,brown=n,buff=b,chocolate=h,gray=g, green=r,orange=o,pink=p,purple=u,red=e,white=w,yellow=y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(x)</t>
+  </si>
+  <si>
+    <t>(X)</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>(b)</t>
   </si>
 </sst>
 </file>
@@ -522,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3D8ED-9095-44D6-B33C-3A5E84EAED2A}">
-  <dimension ref="B2:X5"/>
+  <dimension ref="B1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N2" sqref="N2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -536,6 +554,74 @@
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:24" ht="14.25" customHeight="1">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="2" spans="2:24">
       <c r="B2" t="s">
         <v>0</v>
@@ -672,6 +758,85 @@
       </c>
       <c r="K5" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="14.25" customHeight="1">
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Übersicht.xlsx
+++ b/data/Übersicht.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\Duales Studium\DHBW\KNN_Algorithm\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Projekte\Arbeit\Studium\KNN_Algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402AC90F-332C-4CE7-B0B2-F8F9F0B7A89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B7303F-1A9F-4882-A460-BE0DD792DDF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07B0CE21-313D-42E1-BB58-9EDFD458DEBC}"/>
+    <workbookView xWindow="32505" yWindow="750" windowWidth="18795" windowHeight="11490" xr2:uid="{07B0CE21-313D-42E1-BB58-9EDFD458DEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> stalk-root</t>
   </si>
   <si>
-    <t xml:space="preserve"> stalk-surface-above-ring</t>
-  </si>
-  <si>
     <t xml:space="preserve"> stalk-surface-below-ring</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>(b)</t>
+  </si>
+  <si>
+    <t>Kap</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3D8ED-9095-44D6-B33C-3A5E84EAED2A}">
   <dimension ref="B1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:O2"/>
     </sheetView>
   </sheetViews>
@@ -556,70 +556,70 @@
   <sheetData>
     <row r="1" spans="2:24" ht="14.25" customHeight="1">
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:24">
@@ -660,142 +660,142 @@
         <v>11</v>
       </c>
       <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
       <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
         <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="128.25">
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="14.25" customHeight="1">
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:24">
@@ -818,25 +818,25 @@
         <v>11</v>
       </c>
       <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
         <v>14</v>
       </c>
-      <c r="N15" t="s">
-        <v>15</v>
-      </c>
       <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>19</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>20</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>21</v>
-      </c>
-      <c r="T15" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
